--- a/RiskAssesments/RISK_ASSESMENT_V1.xlsx
+++ b/RiskAssesments/RISK_ASSESMENT_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsem/Documents/Coursework/BABY-SILENCER/RiskAssesments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189499C0-6391-E547-BA63-6612928DAB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE5A09E-0B7B-8D4A-B0DF-D123BB2F3BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="2600" windowWidth="32200" windowHeight="21980" xr2:uid="{2D925D5C-A391-4FE5-A0E8-283DA0A9D531}"/>
   </bookViews>
